--- a/NEW Templates/NEW Template_Produit_JOUET_CrystalchainMonoprix.xlsx
+++ b/NEW Templates/NEW Template_Produit_JOUET_CrystalchainMonoprix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathias/Crystalchain Dropbox/Equipe/Projets/PRIME/AGEC/40 - Clients/Monoprix/Batch Fournisseurs/NEW Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drive partagés\7 - Projects\Trace\PRIME\AGEC\40 - Clients\Monoprix\Batch Fournisseurs\NEW Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA424FC-A110-CD4E-85BC-50B4B3437295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C7E4A-F399-4D13-8B7E-A9DE7AE84137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{5D9087EA-63B8-6948-AC43-F520E925D193}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{5D9087EA-63B8-6948-AC43-F520E925D193}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="1" r:id="rId1"/>
@@ -1785,7 +1785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{03DC099A-FDB6-4D0E-AB0F-43F27AF0575F}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{85ED6688-ACF6-46F4-8F52-FCB555C651F7}">
       <text>
         <r>
           <rPr>
@@ -2821,9 +2821,6 @@
 Recyclability</t>
   </si>
   <si>
-    <t>Incorporation de matière recyclée_x000B_Incorporation of recycled material</t>
-  </si>
-  <si>
     <t>Substances dangereuses
 Hazardous substances</t>
   </si>
@@ -2934,6 +2931,10 @@
   </si>
   <si>
     <t>Jeu de fléchettes en sisal, 6 fléchettes, diamètre 45 cm.</t>
+  </si>
+  <si>
+    <t>Incorporation de matière recyclée (%)
+Incorporation of recycled material (%)</t>
   </si>
 </sst>
 </file>
@@ -3190,9 +3191,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3219,6 +3217,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7015,21 +7016,14 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Format"/>
-      <sheetName val="PRODUIT-AGEC"/>
-      <sheetName val="data"/>
+      <sheetName val="ALPARGATAS SLU_Template_Produit"/>
     </sheetNames>
     <definedNames>
       <definedName name="convertUTF8"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7338,7 +7332,7 @@
       <selection activeCell="G1" sqref="G1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -7350,7 +7344,7 @@
     <col min="13" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
@@ -7367,7 +7361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -7382,7 +7376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -7395,7 +7389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -7408,7 +7402,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -7421,7 +7415,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -7434,7 +7428,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -7449,7 +7443,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -7462,7 +7456,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -7491,7 +7485,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -7504,7 +7498,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -7533,7 +7527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
@@ -7546,7 +7540,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -7559,7 +7553,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
@@ -7581,7 +7575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -7605,7 +7599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
@@ -7618,7 +7612,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -7650,7 +7644,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -7663,7 +7657,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -7676,7 +7670,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -7700,7 +7694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
@@ -7713,7 +7707,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
@@ -7726,7 +7720,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
@@ -7739,7 +7733,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>19</v>
       </c>
@@ -7752,7 +7746,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>20</v>
       </c>
@@ -7765,7 +7759,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
@@ -7778,7 +7772,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
@@ -7791,7 +7785,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
@@ -7804,7 +7798,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
@@ -7817,7 +7811,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
@@ -7830,7 +7824,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -7843,7 +7837,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -7873,11 +7867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA37F5C3-7354-694B-9426-36415606EC13}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="73" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="73" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -7909,7 +7903,7 @@
     <col min="30" max="30" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -7926,7 +7920,7 @@
         <v>74</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -8001,7 +7995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="29" customFormat="1" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="28" customFormat="1" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>75</v>
       </c>
@@ -8018,7 +8012,7 @@
         <v>74</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>79</v>
@@ -8029,255 +8023,267 @@
       <c r="I2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="24" t="s">
+      <c r="Q2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="R2" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="S2" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="T2" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="U2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="V2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="V2" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" s="26" t="s">
+    </row>
+    <row r="3" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="32">
+        <v>4006381333931</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="30">
+        <v>0</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="32">
+        <v>5012345678901</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="32">
+        <v>9780201379624</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="30">
         <v>20</v>
       </c>
-      <c r="Y2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="24" t="s">
+      <c r="K5" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="30">
+        <v>20</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="28" t="s">
-        <v>91</v>
+      <c r="B6" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="33">
+        <v>3607343214682</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="33">
-        <v>4006381333931</v>
-      </c>
-      <c r="G3" s="31" t="s">
+    <row r="7" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="33">
+        <v>8806085947126</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I7" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="J7" s="30">
+        <v>100</v>
+      </c>
+      <c r="K7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="W3" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="33">
-        <v>5012345678901</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="31">
-        <v>10</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="33">
-        <v>9780201379624</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="31">
-        <v>20</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="W5" s="31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="34">
-        <v>3607343214682</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="W6" s="31" t="s">
+      <c r="V7" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="W7" s="30" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="34">
-        <v>8806085947126</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
